--- a/describe_dipep_IE.xlsx
+++ b/describe_dipep_IE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/describe_dipep_IE.xlsx
+++ b/describe_dipep_IE.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/describe_dipep_IE.xlsx
+++ b/describe_dipep_IE.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.243593122231163</v>
+        <v>-5.255753997843125</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9646926205704145</v>
+        <v>0.9585432037906777</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.1205527</v>
+        <v>-5.1275893</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.624016</v>
+        <v>-4.629299575</v>
       </c>
     </row>
     <row r="9">

--- a/describe_dipep_IE.xlsx
+++ b/describe_dipep_IE.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-5.255753997843125</v>
+        <v>-5.243076914316876</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9585432037906777</v>
+        <v>0.9029963013744673</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-11.85297</v>
+        <v>-9.1299198</v>
       </c>
     </row>
     <row r="6">
